--- a/site/ValueSet-tnm-primary-tumor-category-max-vs.xlsx
+++ b/site/ValueSet-tnm-primary-tumor-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-tnm-primary-tumor-category-max-vs.xlsx
+++ b/site/ValueSet-tnm-primary-tumor-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-tnm-primary-tumor-category-max-vs.xlsx
+++ b/site/ValueSet-tnm-primary-tumor-category-max-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/tnm-primary-tumor-category-max-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/tnm-primary-tumor-category-max-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,7 +97,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/tnm-primary-tumor-category-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/tnm-primary-tumor-category-vs</t>
   </si>
   <si>
     <t>Codes</t>
